--- a/static/data copy.xlsx
+++ b/static/data copy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16660"/>
+    <workbookView windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>abc</t>
   </si>
@@ -50,7 +50,7 @@
     <t>amount</t>
   </si>
   <si>
-    <t>JohnDoe</t>
+    <t>AlexBrown</t>
   </si>
   <si>
     <t>123 Elm Street, Springfield, IL</t>
@@ -74,9 +74,6 @@
     <t>1-555-234-5678</t>
   </si>
   <si>
-    <t>AlexBrown</t>
-  </si>
-  <si>
     <t>789 Oak Lane, Austin, TX</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
   </si>
   <si>
     <t>1-555-456-7890</t>
-  </si>
-  <si>
-    <t>MichaelLee</t>
   </si>
   <si>
     <t>654 Birch Way, Seattle, WA</t>
@@ -1302,10 +1296,13 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="21.3515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1378,16 +1375,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="F6" s="5">
         <v>500</v>
@@ -1398,16 +1395,16 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="F7" s="5">
         <v>2750.25</v>
@@ -1418,16 +1415,16 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="F8" s="5">
         <v>1200</v>
